--- a/AAII_Financials/Quarterly/ECMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ECMT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>ECMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +772,17 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +819,17 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +866,17 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +891,11 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +932,17 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +979,17 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1026,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1073,17 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1095,11 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,8 +1136,17 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1183,17 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1208,11 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,8 +1249,17 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1296,17 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,8 +1343,17 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1262,8 +1390,17 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1437,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1484,17 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1376,8 +1531,17 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1414,8 +1578,17 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1625,17 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1672,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1719,17 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1766,17 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1604,8 +1813,17 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1642,8 +1860,17 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,8 +1907,17 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1718,51 +1954,69 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +2031,11 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +2050,11 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1831,8 +2091,17 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +2138,17 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2185,17 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2232,17 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1983,8 +2279,17 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2021,8 +2326,17 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2373,17 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2420,17 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2467,17 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2514,17 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2561,17 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2608,17 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2655,17 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2325,8 +2702,17 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2727,11 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2746,11 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2383,20 +2775,29 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2413,28 +2814,37 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2442,7 +2852,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2451,28 +2861,37 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2483,34 +2902,43 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2975,17 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +3022,17 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +3069,17 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +3116,17 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,8 +3163,17 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2711,34 +3184,43 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3235,11 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3276,17 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3323,17 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3370,17 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,13 +3417,22 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E72" s="3">
         <v>-200</v>
@@ -2920,31 +3441,40 @@
         <v>-200</v>
       </c>
       <c r="G72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3511,17 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3558,17 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,8 +3605,17 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3069,34 +3626,43 @@
         <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,51 +3699,69 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3214,8 +3798,17 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3823,11 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3864,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3911,17 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3958,17 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +4005,17 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +4052,17 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +4099,17 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3496,8 +4146,17 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +4171,11 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +4212,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4259,17 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +4306,17 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +4353,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4378,11 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4419,17 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4466,17 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4513,17 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4560,17 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4607,17 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4654,17 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4699,15 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ECMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ECMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>ECMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +793,17 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +849,17 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +905,17 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1039,17 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1095,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1151,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1176,11 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1145,8 +1226,17 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1192,8 +1282,17 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1310,11 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1360,17 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1416,17 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1472,17 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1399,8 +1528,17 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1640,17 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1540,8 +1696,17 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1587,8 +1752,17 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1808,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1864,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1976,17 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +2032,17 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1869,8 +2088,17 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2144,17 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1963,60 +2200,78 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2311,11 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2100,8 +2361,17 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2417,17 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2473,17 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2529,17 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2585,17 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,8 +2641,17 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2697,17 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2753,17 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2809,17 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2921,17 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2977,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +3033,17 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2711,8 +3089,17 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3139,11 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2784,28 +3177,37 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2823,28 +3225,37 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2852,7 +3263,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2861,7 +3272,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2870,28 +3281,37 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2911,34 +3331,43 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3413,17 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3637,17 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3193,34 +3667,43 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3939,17 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3435,13 +3957,13 @@
         <v>-300</v>
       </c>
       <c r="E72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H72" s="3">
         <v>-200</v>
@@ -3450,31 +3972,40 @@
         <v>-200</v>
       </c>
       <c r="J72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +4163,17 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3635,34 +4193,43 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4275,78 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3807,8 +4392,17 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4420,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4470,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4750,17 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4806,17 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4834,11 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4996,17 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +5052,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +5130,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5298,17 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +5354,17 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5410,17 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +5464,15 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ECMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ECMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>ECMT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1756,11 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2110,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,8 +3316,8 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,7 +3343,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3234,7 +3367,7 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3242,8 +3375,8 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,10 +3399,10 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3281,10 +3417,10 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3293,13 +3429,13 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3340,7 +3479,7 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3352,10 +3491,10 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3676,7 +3833,7 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -3688,10 +3845,10 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3966,7 +4139,7 @@
         <v>-300</v>
       </c>
       <c r="H72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -3981,7 +4154,7 @@
         <v>-200</v>
       </c>
       <c r="M72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>-100</v>
@@ -3990,10 +4163,10 @@
         <v>-100</v>
       </c>
       <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4354,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4202,7 +4387,7 @@
         <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -4214,10 +4399,10 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
